--- a/airbnb_dados.xlsx
+++ b/airbnb_dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1020335158462184548?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045608_3902B8K5bZqFjEcn&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/46656816?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-20&amp;check_out=2024-05-25&amp;source_impression_id=p3_1713133356_SMJI4%2FhdVjJVLkeH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>‘Girassol’ Lindo Apto 20° Andar Completo Central</t>
+          <t>Cabana Tramonto Di Lourdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Espaço inteiro: cabana em Doutor Pedrinho, Brasil</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Doutor Pedrinho, Santa Catarina, Brasil</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$89 </t>
+          <t xml:space="preserve">R$296 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,23 +530,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1009566648647137410?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_EouCrEMkuLpdPGiX&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/656006729701917207?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133356_xgjmRb7j%2FMQfUy7s&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conforto Urbano com garagem</t>
+          <t>Chalé Primavera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Palmeira, Brasil</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$129 </t>
+          <t xml:space="preserve">R$429 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +556,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 2 quartos</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,32 +573,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/542839923897593015?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-15&amp;check_out=2024-06-20&amp;source_impression_id=p3_1713045608_LbGuRoEuuuMnDn0g&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/51323919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133356_tGowxnheK7J8uHCz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apartamento aconchegante, pronto a sua espera.</t>
+          <t>Casa de campo em Joinville com Hidro e Lareira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: casa de campo em Joinville, Brasil</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Joinville, Santa Catarina, Brasil</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$102 </t>
+          <t xml:space="preserve">R$380 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -616,32 +620,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/53384543?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-23&amp;check_out=2024-06-28&amp;source_impression_id=p3_1713045608_c8GmwUxm7lt3OpDi&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/50785614?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_91tfo16dooIlyT4z&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Studio Céu - Centro</t>
+          <t>Cabana de Cinema super charmosa na beira de lago.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: casa de hóspedes em Campina Grande do Sul, Brasil</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Campina Grande do Sul, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$122 </t>
+          <t xml:space="preserve">R$690 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,7 +655,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 cama</t>
+          <t xml:space="preserve"> · 2 camas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -663,23 +667,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/773147981612003864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_X%2FqmM%2Bv8GRFebvGb&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/51153114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133356_c%2Fa1FXh76HEFMjK7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Studio Proximo ao Shopping Muller-TRA0304</t>
+          <t>Cabana na Serra Hidro Lareira e Vista sensacional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Espaço inteiro: cabana em São Bento do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>São Bento do Sul, Santa Catarina, Brasil</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$189 </t>
+          <t xml:space="preserve">R$405 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -706,27 +714,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/821074882229242414?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_WpRc0EBaVQ5jKCc9&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/51499193?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133356_NjPw6w9ZciIARNnz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Housi Brickell One - HBO0109</t>
+          <t>Cabana Rústica - Grande Passo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: chalé em Quatro Barras, Brasil</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Quatro Barras, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$215 </t>
+          <t xml:space="preserve">R$599 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -753,37 +761,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713045608_WMuX9oSg9A2EN5pt&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/921029245112867864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133356_aptBLAc5Dp6mEiWg&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Studio no centro de Curitiba</t>
+          <t>Casa Bambu Spa com cachoeira privativa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: condomínio em Arapongas, Brasil</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Arapongas, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$125 </t>
+          <t xml:space="preserve">R$434 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>3 hóspedes</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,27 +808,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_UPEbP0i7s9igvbfu&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/790025011931710526?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-17&amp;check_out=2024-06-22&amp;source_impression_id=p3_1713133356_lg9aYhFubPLt2hdV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Studio Aconchegante Selfie - ALL1310</t>
+          <t>Chalé Álamo experiência de luxo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Quarto em apart-hotel em Centro, Brasil</t>
+          <t>Espaço inteiro: cabana em Rio dos Cedros, Brasil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centro, Paraná, Brasil</t>
+          <t>Rio dos Cedros, Santa Catarina, Brasil</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$223 </t>
+          <t xml:space="preserve">R$490 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -847,32 +855,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1132790847570388215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045608_l%2FN70f5LTxa%2BA2cg&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/989923661855551391?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133356_snWE%2FszOOoD8%2BR%2Fk&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mar da Galileia - Apto 1 qto com piscina EL504</t>
+          <t>Tranquilidade ao lado de Curitiba_Chalé Marmeleiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Almirante Tamandaré, Brasil</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Almirante Tamandaré, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$174 </t>
+          <t xml:space="preserve">R$546 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -887,44 +895,40 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 1 banheiro e meio</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/23558010?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_ZDWxl09lJgVecyF7&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/726900795510584674?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133356_i81YpzkCWE4uQUZ3&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Studio Lifespace Shop. Curitiba - piscina/academia</t>
+          <t>Cabana Cedro | Como vista para o lago</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Centro, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>O lugar inteiro em São José dos Pinhais, Brasil</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$154 </t>
+          <t xml:space="preserve">R$590 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>3 hóspedes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -941,32 +945,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/756339686140252259?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_gSbi0YMSvZS%2BxEgI&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1010708793639120628?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_hC%2FnEyiTxEH6a77f&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Apartamento 1 Quarto com Vaga no Batel - LUC0108</t>
+          <t>Cabana Moderna com vista privilegiada da represa.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Campina Grande do Sul, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$317 </t>
+          <t xml:space="preserve">R$650 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3 hóspedes</t>
+          <t>2 hóspedes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -976,7 +980,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 1 cama</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,27 +992,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1118127256240540208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_byz2PxXwKSr2QHoN&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/44335458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-08&amp;check_out=2024-05-13&amp;source_impression_id=p3_1713133356_hWdHv%2B183B5w9uZN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Studio simples 1 cama de casal</t>
+          <t>Cabana Rústica Nó de Pinho a 30mim de Curitiba</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Rio de Una, Brasil</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Rio de Una, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$126 </t>
+          <t xml:space="preserve">R$628 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1035,117 +1039,113 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1084782117694690075?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_aHhFaACnQkTV%2BZ4u&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/763266522563963556?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_hHyleGGwoJXXoPiT&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Estúdio completo, cama Queen, ar condicionado, academia</t>
+          <t>aconchego do marumbi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Espaço inteiro: casa em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$155 </t>
+          <t xml:space="preserve">R$517 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3 hóspedes</t>
+          <t>7 hóspedes</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 3 quartos</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 4 camas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 4 banheiros</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1132516366058569482?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713045608_99%2Bso3Kc3fD1py0r&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1080716028853257155?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_%2FJZsm7Yx4fI09XsQ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1405 Apartamento Central</t>
+          <t>Casa do Lago: Um Refúgio de Luxo na Natureza</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Curitiba, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Espaço inteiro: casa em Campo Largo, Brasil</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$120 </t>
+          <t xml:space="preserve">R$3.520 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>15 hóspedes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 5 quartos</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 11 camas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 7 banheiros e meio</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/966649831012013786?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_HotP7Ppx9mM1xUUK&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/663137824353330032?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133360_QQDUTQ%2FusRh%2BgoID&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ônibus casa + cabana transparente refúgio urbano</t>
+          <t>Bangalô Sabores do Sítio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trailer em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Curitiba, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Rancho em Campina Grande do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$875 </t>
+          <t xml:space="preserve">R$304 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 2 quartos</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 cama</t>
+          <t xml:space="preserve"> · 2 camas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1172,23 +1172,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/21455771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_xlFwriz4M8xoF6QW&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/896380265814020430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_Ts%2BQ%2BUkUvYl34jfB&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loft centro Curitiba (9 andar) com sacada</t>
+          <t>Chale na Serra Hidro Lareira Vista sensacional</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Espaço inteiro: loft em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Espaço inteiro: chalé em São Bento do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>São Bento do Sul, Santa Catarina, Brasil</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$94 </t>
+          <t xml:space="preserve">R$530 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1198,7 +1202,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1215,42 +1219,38 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045612_VTABYvKr2wEvG8GZ&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/965409498801941663?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133360_28y7ulgHADIUABw1&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Flat aconchegante, bem localizado, com garagem</t>
+          <t>Chalé Burk 's</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Curitiba, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Espaço inteiro: chalé em Rio Branco do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$135 </t>
+          <t xml:space="preserve">R$390 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>6 hóspedes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 2 quartos</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 3 camas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1262,32 +1262,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/963979217069402247?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_9a3zJyJDBj%2F10EtN&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/970553718997103031?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_21SxIZHg87sWAADO&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Studio alto padrão - Batel II</t>
+          <t>Chalé privativo espaçoso hidro, piscina e lareira</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Espaço inteiro: loft em Curitiba, Brasil</t>
+          <t>Espaço inteiro: chalé em Fazenda Rio Grande, Brasil</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Fazenda Rio Grande, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$150 </t>
+          <t xml:space="preserve">R$533 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3 hóspedes</t>
+          <t>2 hóspedes</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 1 cama</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1309,27 +1309,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/40038805?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045612_%2BYERQG5VIm%2FHxujV&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/810121167313938313?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_oqnu4QUUgOFXGzEI&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O melhor do Alto da XV com garagem e sacada</t>
+          <t>Chalé Andorinha, com hidro para casal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Campo Alegre, Brasil</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Campo Alegre, Santa Catarina, Brasil</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$199 </t>
+          <t xml:space="preserve">R$340 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 cama</t>
+          <t xml:space="preserve"> · 4 camas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1356,37 +1356,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/972600498234884440?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_j1%2F%2Fr1X5TIhPS40o&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/994077022830227160?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133360_MLbVt2ET8u8jerKz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Studio Espaçoso l Centro Cívico l Ar quente frio</t>
+          <t>Chalé du Monte</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Almirante Tamandaré, Brasil</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Almirante Tamandaré, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$114 </t>
+          <t xml:space="preserve">R$392 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>2 hóspedes</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1403,32 +1403,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1086898903257649436?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_x1lJDxP7wddzD1Bd&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/633187960326501478?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133360_yUNIKKH3vBmTsnVS&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Studio Central</t>
+          <t>Chalé Costão da Serra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: chalé em Guaratuba, Brasil</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Guaratuba, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$103 </t>
+          <t xml:space="preserve">R$452 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 cama</t>
+          <t xml:space="preserve"> · 2 camas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1450,33 +1450,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/31334042?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_60lrbeWlyKtujLxH&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1043569036827493626?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133360_si40BiX8ZkBcgwl0&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apartamento exclusivo! - Prédio Residencial</t>
+          <t>Cabana Cedro da Mata</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Espaço inteiro: cabana em São José dos Pinhais, Brasil</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais, Paraná, Brasil</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$84 </t>
+          <t xml:space="preserve">R$718 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>3 hóspedes</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1493,70 +1497,66 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713045612_GbHRB7TPFf2q9h5K&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/43222978?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-10&amp;check_out=2024-05-15&amp;source_impression_id=p3_1713133360_S4Sq1gvSx2wK9sc7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Estudio Completo no Batel - HSB1262</t>
+          <t>Encante-se com Purunã às margens do Cânion</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Curitiba, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Espaço inteiro: casa em Balsa Nova, Brasil</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$315 </t>
+          <t xml:space="preserve">R$750 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2 hóspedes</t>
+          <t>4 hóspedes</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 quarto</t>
+          <t xml:space="preserve"> · 2 quartos</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 cama</t>
+          <t xml:space="preserve"> · 2 camas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 2 banheiros</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/42915009?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_%2BjUVmRu54kZi09et&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/638518196363778256?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-18&amp;source_impression_id=p3_1713133360_pw2J6N8Xl%2F%2FL%2FsUr&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Superhost, Check-in Automático - 5* - Super Ducha</t>
+          <t>QUINTA DA CACHOEIRA - Serra da Esperança</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Curitiba, Brasil</t>
+          <t>Espaço inteiro: casa de campo em Guarapuava, Brasil</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$108 </t>
+          <t xml:space="preserve">R$550 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1576,30 +1576,30 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 2 banheiros</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/46710604?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_VusSrCT%2BNqCmM7vu&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/588194697341510114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_bWV9Rqk0oSl%2BBVpq&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apê da Flávia - Cond. Clube Alto Padrão</t>
+          <t>Chalé Santo Anjo - alto da Montanha</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Vila Izabel, Brasil</t>
+          <t>O lugar inteiro em Massaranduba, Brasil</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$206 </t>
+          <t xml:space="preserve">R$440 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1626,27 +1626,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/38264279?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-18&amp;check_out=2024-06-23&amp;source_impression_id=p3_1713045612_j2iO5EWFwdRcVCfR&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/988227138436583784?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133360_OH2SHwzfjmfP62xL&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Studio novo e aconchegante</t>
+          <t>Chalé Sossego - Grande Passo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Centro, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Espaço inteiro: cabana em Quatro Barras, Brasil</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$72 </t>
+          <t xml:space="preserve">R$639 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1656,7 +1652,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1673,27 +1669,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/893661000513933734?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_jeHkcCJ0%2F5MqbsOD&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/977701018554701671?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-26&amp;check_out=2024-05-31&amp;source_impression_id=p3_1713133360_hqQRwUiu2k4Fc%2FnC&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>“Acácia” Lindo Apartamento Completo Central</t>
+          <t>Cabana - Refúgio da Rota</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: cabana em Pomerode, Brasil</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Pomerode, Santa Catarina, Brasil</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$89 </t>
+          <t xml:space="preserve">R$620 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1713,49 +1709,45 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 1 banheiro e meio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/752804197241316083?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_4PM3A7KmxvFXz0S0&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/48901200?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_GgfN8I8JoVkgK%2FQD&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>No parque|Próx Pedreira e Ópera de arame|Vaga|Ar/c</t>
+          <t>Chale maravilhoso montanhas e represa Capivari</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Curitiba, Paraná, Brasil</t>
-        </is>
-      </c>
+          <t>Rancho em Campina Grande do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$112 </t>
+          <t xml:space="preserve">R$350 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>3 hóspedes</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 quartos</t>
+          <t xml:space="preserve"> · 1 quarto</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 1 cama</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1767,88 +1759,5897 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/997766725335011524?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_1pRTYHc7U1GSZHJu&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/945485242137718553?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_5UNTBQT9oVTY6Wwb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#Stay566 - lindo loft em CWB</t>
+          <t>Cabana Aprazível</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+          <t>Espaço inteiro: casa em Morretes, Brasil</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Curitiba, Paraná, Brasil</t>
+          <t>Morretes, Paraná, Brasil</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$230 </t>
+          <t xml:space="preserve">R$360 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4 hóspedes</t>
+          <t>5 hóspedes</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · Estúdio</t>
+          <t xml:space="preserve"> · 2 quartos</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 2 camas</t>
+          <t xml:space="preserve"> · 3 camas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> · 1 banheiro</t>
+          <t xml:space="preserve"> · 3 banheiros</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/20235128?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_NPdILII0rs6%2Bqroj&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/559124093510624070?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133360_eaoLsgr0dJF4RPsH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Estúdio Ink Champagnat - Mobilado</t>
+          <t>Cabana da Mata Natureza, Design e Conforto a menos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Espaço inteiro: loft em Campina do Siqueira, Brasil</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Espaço inteiro: chalé em Balsa Nova, Brasil</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Balsa Nova, Paraná, Brasil</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">R$99 </t>
+          <t xml:space="preserve">R$580 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48169574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_I0ZOtx4AQDrwNhAt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHALÉ “pé na areia” em Itapoá SC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Itapoá, Brasil</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Itapoá, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$445 </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52401688?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_CBX42ZwvGs5OM0Es&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Casa do Lago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Lucena, Brasil</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lucena, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$465 </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/713587829203171943?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_wY0LdHxbRAU%2FE4hE&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chalé da península</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Rio dos Cedros, Brasil</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$605 </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/42850137?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ZBHHOJqJOhh9UBSY&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Romantismo, aconchego e beleza.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Rio dos Cedros, Brasil</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$500 </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/651681677407389430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133364_%2FAxMzc%2B7WcFCcBIU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cobertura frente para o Mar / Praia com piscina</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Pontal do Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pontal do Paraná, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$350 </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50993020?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133364_DcAQCDXEXcbexR2%2F&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Casa de Campo Container</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Contêiner de transporte em Jandaia do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Jandaia do Sul, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$535 </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1077590859700584876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133364_%2Fgs8XR%2F%2FlvTzo5TW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cabana do Lago - Natureza, Design e Conforto a men</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Balsa Nova, Brasil</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Balsa Nova, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$580 </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/523346182827720005?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_Fy1Q5EMf9bsOftVb&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chácara Piscina e RIO no fundo a 60km de Curitiba</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$238 </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mais de 16 hóspedes</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 7 camas</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53770229?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133364_IU5oTbZV72t8OqAu&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tiny House Purunã - Refúgio Inspirador</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Microcasa em Brasil</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$565 </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48403014?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_eFw0fCL97s%2FdifT1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Chalé ao pé do Marumbi com rio, ofurô e tucanos</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$445 </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_uoKa%2BaBUYXtwwXBU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Cabana Sabores do Sítio</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$310 </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/746472180104259874?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133364_yCboLDWrh6kyDxH%2B&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Chalé Amor: Vale d'Ouro Pousada</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Quarto privativo em pousada em Quilombo, Brasil</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Quilombo, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$499 </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro privado</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ShZvC84NWIiIYF9k&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Descanso com Vista Privilegiada! (Leopoldo)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$180 </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>3 hóspedes</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> · 1 quarto</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/787050674026213890?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133364_zizipA1M1N8eO77g&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Studio Art &amp; Design Alto Padrão</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: condomínio em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$188 </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve"> · 1 cama</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1037809910742245779?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_atgN1QOy1O5aMETF&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Estúdio completo - Região da Higienópolis</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Londrina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$120 </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48865958?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133364_Ong%2FRqbOGvztqPsz&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(novo) Apartamento impecável próximo ao bosque 2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Zona 02, Brasil</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$280 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53558919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_n5h1XYxl%2FcU6eMCL&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Chalé aconchegante na natureza ao lado da capital</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Campo Magro, Brasil</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Campo Magro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$110 </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/32414763?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_ztq178%2FHiMNK1hKP&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ecositio, para você renovar sua energia</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Antonina, Brasil</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Antonina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$70 </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10 hóspedes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 quartos</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 10 camas</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52389819?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_GxWEaUcJoeUlDeug&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chácara Faxinal das Águas- Chalé do Rio</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Pitanga, Brasil</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$115 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/922648329770626479?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133367_thZHgd%2FfLgUo28yN&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cabana Monte Oliva</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Benedito Novo, Brasil</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Benedito Novo, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$179 </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1112011796454712215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133367_vkTdYSg7pLHxWsOm&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>casa em região de fácil acesso</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$220 </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_zmnGWlW9nR0z0x0y&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Descanso com Vista Privilegiada! (Leopoldo)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$180 </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/42536134?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133367_PDOFYsT3BTXNcxN4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Chalé João de Barro/completo, prox. Gleba Palhano</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Londrina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$68 </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1132715618441526862?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_D68FXGqzO6xbjh%2FU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ap 204 c/ 2 Qts, sacada, garagem e A/C</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$181 </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/544142168533418261?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713133367_rhy5GjWsuxsHgpr0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Casa em Morretes, 50 m do Centro Histórico.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Vila dos Ferroviarios, Brasil</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$77 </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_cYgM6wlFQKuLktbh&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Cabana Sabores do Sítio</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$310 </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1111536951031750653?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_dqbUdUbcbvwnYcMn&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Seu refúgio urbano dos sonhos!</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Cascavel, Brasil</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cascavel, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$120 </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/997864101866521776?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_hriYjg3CjGnE2pU1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Chalé Campo Alegre</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Campo Alegre, Brasil</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Campo Alegre, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$300 </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50385530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_sD4pYTJ7K16FFTqY&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cabana linda no Canto da Saíra!</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Itaqui de Cima, Brasil</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Itaqui de Cima, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$219 </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/898482973431673491?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_CE2fmFP8GGdiYjSH&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Studio suspenso sobre o Rio Nhundiaquara</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$285 </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/749799959279247409?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-23&amp;check_out=2024-05-28&amp;source_impression_id=p3_1713133367_YJOLIEv54iH%2BlKwP&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Loft encantador com piscina, no coração de Maringá</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: loft em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$138 </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/39980673?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133367_7iC0BTks%2Fz%2FMJSRt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>"CHALÉ 5"- Porto Villa da Mata-Chalés para locação</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ribeirão Claro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$280 </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/37287443?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_AynfKOIzP7qFfnod&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CASA DE CAMPO PERTO DO CENTRO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Santana, Brasil</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$296 </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/898571722744580060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_FKDnRMiAt4LRuyZJ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Cabana Roots, Jacùzzi, Piscina, Fogueira, Bike.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Blumenau, Brasil</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Blumenau, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$432 </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/4795458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_wHKSbvrELX57lBhU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Canto Sereno</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Campo Largo, Brasil</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Campo Largo, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$399 </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52141458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133371_jrOO028XkaftDXp2&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Chácara c/ Piscina Perto de Curitiba Wi-fi &amp; Sauna</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em São José dos Pinhais, Brasil</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$1.588 </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Mais de 16 hóspedes</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 9 quartos</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 18 camas</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 7 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/775258024486932180?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133371_aDxrtZ5BxXLs0kGb&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Apartamento novo - 5 mins do Parque do Ingá</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$179 </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1010306963510659938?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_W6q9s9R98h33MmuQ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Casa na árvore Chalé Quemeninho</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Casa na árvore em Apiaí, Brasil</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$173 </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/862272865914039638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133371_sgJkABxamQpVsRhw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Refúgio Natural em Antonina-PR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Casa na terra em Antonina, Brasil</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Antonina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$739 </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8 hóspedes</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/39320210?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_tyWynLdbBc8%2FXFi2&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>"CHALÉ 1"- Porto Villa da Mata-Chalés para locação</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ribeirão Claro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$320 </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/992251228778186937?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_gDEvzA%2BY1YnaqMAO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cabanas Recanto Vale do Tibagi</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em São Jerônimo da Serra, Brasil</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>São Jerônimo da Serra, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$557 </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/815302729083135727?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_J%2BuGZFoWUj%2FKYIFy&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Cabana Goiaba - Chácara do Porto</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Morretes, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$599 </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 banheiros e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1116041450244111296?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_E4GZ%2Fdy7yobp%2Blb4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ap c/ 2 Qts, sacada, garagem e A/C</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$190 </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/51076966?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133371_EWZzJYdjSm2cRcvV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Apto 507 aconchegante bem localizado (Planetarium)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$286 </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/46526631?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_MWFLL7aJxDbnbvmF&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Chácara na beira do Passaúna a 30 min de Curitiba</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Campo Largo, Brasil</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$1.360 </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10 hóspedes</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 quartos</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133371_y2ulb2N60AdST7ke&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Flat aconchegante, bem localizado, com garagem</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$135 </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/761099166890775777?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_OE%2BE49S3e0PSbvYA&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Casa de Campo com Piscina em Piraquara</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Piraquara, Brasil</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Piraquara, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$1.320 </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>14 hóspedes</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 quartos</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 7 camas</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 8 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/49793555?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_Cw%2FFYWiI%2Bh4SXsV7&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CHALÉ ALTO PADRÃO - São Luiz do Purunã (2 quartos)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Hotel-fazenda em Balsa Nova, Brasil</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Balsa Nova, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$817 </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/46637392?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133371_PhvMRjzDpsu5%2BXw0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Recanto do Sossego!Com PISCINA grande e PLAYGROUND</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Morretes, Brasil</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$316 </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>15 hóspedes</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1012473476710413574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133371_CiX%2FfXcFXEl0L6NO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Chalet petit - Vilarejo Hospedagem</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Ilha do Mel, Brasil</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$565 </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1082643511933100804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133371_CZt1zGyoYusXBwDW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Casa em Maringá - com piscina</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$115 </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8 hóspedes</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/720974585407854340?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_4gzKT8pAYI8kuEP5&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Casa de campo com piscina</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Jaguariaíva, Brasil</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Jaguariaíva, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$600 </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1111604228738060216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133375_h4ArK5NU8wlMNeul&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Apartamento Moderno AZ202-7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$207 </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52104274?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133375_88Pf8vhDQTzV2dJZ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lareira, Forno à Lenha &amp; Wi-Fi no Campo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em São José dos Pinhais, Brasil</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$364 </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1105678903819759771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_3%2Byd%2BfWnz7G6hsv1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Matinhos vista mar c/churrasqueira e itens praia.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Matinhos, Brasil</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Matinhos, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$183 </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_lf%2FkBJt71TOlkUyw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Estudio Completo no Batel - HSB1262</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$314 </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1063090915162869547?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_NoHN3JGZO%2FlOZbeH&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Loft lindo, clean, bem central, com ar e garagem</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Cascavel, Brasil</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cascavel, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$111 </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/550829830660386060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_%2BnG5CtCLLeCePnA%2B&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ap Novo 7 Andar Janelas Direto Mar perto Beto Carr</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: condomínio em Itajubá, Brasil</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Itajubá, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$328 </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 camas</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/805744881034921141?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_Vl1MYkw%2BPfh5SuRU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Oásis na cidade</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$1.543 </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8 hóspedes</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 quartos</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/49143796?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_MJSkOrgBI8jO5l78&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Um Paraíso entre a Floresta e o Mar / Praia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Vila da Gloria, Brasil</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Vila da Gloria, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$504 </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8 hóspedes</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/30346078?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_A%2FUcn74HM17jv%2BTW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Apartamento com visual moderno e ar-condicionado</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Jardim Ipanema, Brasil</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Jardim Ipanema, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$143 </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50320917?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133375_LbyGkus%2F10dBro8u&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Acolhedor, completo Cond. Clube GreenCenter 22°and</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: condomínio em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$112 </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/901314577350733782?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_qjw6nFe2AYhN%2Fvm4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Refúgio Paraíso da Serra</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Campo Alegre, Brasil</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Campo Alegre, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$525 </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/39950793?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_GS4U4BebGxvdQVw8&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>"CHALÉ 4"- Porto Villa da Mata-Chalés para locação</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ribeirão Claro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$280 </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1055597774232669885?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_TXy5cQbiSouQsPgX&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cabana Encantos do Enxaimel</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Pomerode, Brasil</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$239 </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/949122648724718554?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_JemXdWjQOmNAaCVM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Casa de campo com vista de Castro</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Castro, Brasil</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Castro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$385 </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/51176315?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133375_67nuix%2FCU8fGPsix&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>A - Apto central, próximo de tudo!</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: loft em Zona 7, Brasil</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$112 </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1036396597827869576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133378_Pbnod9xNaDj%2Fj%2BDg&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Casa individual até 06 pessoas!</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Toledo, Brasil</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Toledo, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$69 </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/16822662?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133378_vY683gyV%2FWWjXu89&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Conforto e Comodidade em Santa Felicidade</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$390 </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52221462?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_PjIFpUAkPF85qY0C&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Rancho na Beira Rio para Relaxar com a Família.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Rosana, Brasil</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Rosana, São Paulo, Brasil</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$200 </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/635997920878586114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133379_CPvOszbFdp%2B2x3YC&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Chale na serra em Campo Largo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Campo Largo, Brasil</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$415 </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1006000557049248002?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713133379_xU3Qf55pxBxLPKdL&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Solar Di Modena</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Cambé, Brasil</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$165 </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/39088477?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133379_MeKnrYbJHoyoxfrD&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>"CHALÉ 3"- Porto Villa da Mata-Chalés para locação</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ribeirão Claro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$280 </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50770068?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_GcgJ4jp3%2BYhSv8jG&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lindo Chalé de Campo - ALTO PADRÃO.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Hotel-fazenda em Balsa Nova, Brasil</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$855 </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/699045280238096090?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133379_HEv8425ljfwNtc5y&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rancho Preto, Coração do Rio Vermelho.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O lugar inteiro em São Bento do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>São Bento do Sul, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$253 </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1104595681502449386?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133379_LjJ8yePty0Swvi3K&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Studio 04 - Próx. a UEM, com garagem, AC e wi-fi</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$134 </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/46336944?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_6GysBxUrNrZVDAr0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Chácara Morada dos Sonhos BNB-Londrina</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$495 </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>12 hóspedes</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 7 camas</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/43457804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133379_aW7sgg1P0bv9liAt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Conforto &amp; Sofisticação no centro de Londrina-PR</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$182 </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50038292?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133379_NheE69LXWMWMrygw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2 - Cambuhy Resort- Frente Mar - Matinhos/PR</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: condomínio em Matinhos, Brasil</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$410 </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7 hóspedes</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52986812?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133379_%2FmhiMQZatOp%2FbwOj&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Apartamento super aconchegante Região Nobre de Londrina</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Gleba Fazenda Palhano, Brasil</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Gleba Fazenda Palhano, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$204 </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/50268607?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_AvUcslKFmvPcAWPD&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Apartamento lindo e aconchegante no coração de Cascavel, próximo de tudo.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$150 </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/573221082228757147?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_5me8v8hmgi%2B6j55I&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Acomodação completa e agradável</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Boqueirão, Brasil</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Boqueirão, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$80 </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1055318850749857213?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_G7TqcewLK4Gcg42a&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Chalé da Quinta</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em São Francisco do Sul, Brasil</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>São Francisco do Sul, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$216 </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/685337400786476532?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_RhP9pWhmY6UU3qt9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Charmoso Chalé com hidro Café da manhã incluso!</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Campo Alegre, Brasil</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Campo Alegre, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$510 </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1087574140202126869?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_zMNN2CcTE3W6PJfV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Apto NOVO completo-Gleba Palhano</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Londrina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$167 </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/17261000?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_fyeK7qyRX856zCgk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Vivern Bem area (Curitiba)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Campo Magro, Brasil</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$772 </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>14 hóspedes</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 quartos</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 banheiros e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/623262994809361103?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133382_47AUkfwpRbqxrP1U&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ESTÚDIO COMPLETO - CENTRO DE LONDRINA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$120 </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/603017509386955216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_f777vfI8Cbov8De1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Casa espaçosa, a 750m do Cataratas JL Shopping</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Jardim Claudia, Brasil</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$150 </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>10 hóspedes</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 8 camas</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/905843455951090673?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133382_m10%2BpDnu%2BTm5wUT3&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>apto02 edifício vitória Fb</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Francisco Beltrão, Brasil</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$100 </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/49604999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133382_IHKUInj0HzLsdKAB&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lindo e Completo Apartamento no Centro de Foz</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$206 </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1060235003234042893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133382_OaZHqeh%2FTlESa1LZ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Aconchego é ótima localização</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$217 </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53805864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_Clf6ipbjPwluHqoV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Chalé Magnólia com Jacuzzi e vista para o lago</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: cabana em Rio dos Cedros, Brasil</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Rio dos Cedros, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$500 </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/997766725335011524?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133382_kZOC3RUGJgiAHpwt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>#Stay566 - lindo loft em CWB</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$230 </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48292684?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-20&amp;source_impression_id=p3_1713133382_crZtwjFdKficHCce&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Studio luxuoso 29º andar vista para Serra do Mar</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$189 </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/659412938411923831?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_amAkVYCg5Qh2zUr9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Beira Mar, Piscina, Academia, WiFi, Estacionamento</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Matinhos, Brasil</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Matinhos, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$350 </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7 hóspedes</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48832271?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_mNLFMsZd4xF7mR2u&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CABANA DO VALE - RANCHO KÜNZEL -CAMPO ALEGRE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de hóspedes em Campo Alegre, Brasil</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$391 </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6 hóspedes</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 5 camas</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/786834345493260248?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_dwZRXaHAf8ePSHXr&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sobrado com vista Mar &amp; Piscina</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Itapoá, Brasil</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$550 </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>10 hóspedes</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 quartos</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 6 camas</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros e meio</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1131192598071150208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_hl7s5AVgqUbErb%2Bn&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Apartamento Duplex Rooftop - SH1508</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$225 </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48186964?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133386_XIKU7Lryp%2Fxti3%2Bg&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Studio com Cama de Casal - ALL1221</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$226 </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/577549434725587999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133386_WiNzUVs3M35QYe9M&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CHALÉ COM HIDRO - FAZENDA ENCANTO DO VALE -</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Rio Negrinho, Brasil</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Rio Negrinho, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$474 </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/577641182041994576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_0Yj%2Fe5Ltr1mbgztt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>casa grande fica próximo ao centro de arapongas.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Arapongas, Brasil</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Arapongas, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$190 </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/652841762294255893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133386_KsJt8kZIXJoGKTFq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Apartamento moderno e aconchegante no centro</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$120 </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/890602063781994456?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_bz9QkgslKLI70vqK&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Chalé do Recanto Kuglin, ao lado do lago.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Pomerode, Brasil</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Pomerode, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$250 </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/22830610?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_gNMwGiBASQEy2oh5&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>A Casinha da Árvore</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Casa na árvore em Guaramirim, Brasil</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$195 </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/40529946?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133386_%2BSJnu1ACbu4BhEab&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Excelente Estúdio Centro Cama Queen</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em CURITIBA, Brasil</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$89 </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1033505777247319330?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_xVm8jrdZt2IuMm1Z&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Apartamento 02 novo, piso terreo</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Imbituva, Brasil</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Imbituva, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$85 </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52770845?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133386_EItp6NXst8SkpyoT&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Chalé pet friendly Sítio Morumbi-Ribeirão Claro-PR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$229 </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133386_oQXRsVXo%2Fhywpgo9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Studio Aconchegante Selfie - ALL1310</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Quarto em apart-hotel em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$221 </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/721595472057781982?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133386_NmWcG3%2Fp8YvVpXlr&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>31º. Andar no Edifício 7th</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$340 </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_ft4M3SIhGoURtJqB&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Studio no centro de Curitiba</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$125 </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133386_Wp0fEAhpUdFRH3Rt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>casa de lazer</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$148 </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/22830610?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_cOkwqk7Ykc5bz03p&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>A Casinha da Árvore</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Casa na árvore em Guaramirim, Brasil</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$195 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/40529946?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133389_daVzDOyliR4aMsr7&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Excelente Estúdio Centro Cama Queen</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em CURITIBA, Brasil</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$89 </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/52770845?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133389_HonyUtKGBmvux5wT&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Chalé pet friendly Sítio Morumbi-Ribeirão Claro-PR</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Ribeirão Claro, Brasil</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$229 </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/721595472057781982?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133389_KXUXgVDiqB2yS%2BVk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>31º. Andar no Edifício 7th</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$340 </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1051537509637818601?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_V%2BVTapmMVbzLz1mJ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Studio versátil 1 cama casal</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$131 </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133389_j5aZSy4jIAgvEIz0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Studio no centro de Curitiba</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Curitiba, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$125 </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · Estúdio</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_29s5UycyzY8KnNOM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>casa de lazer</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Maringá, Brasil</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Maringá, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$148 </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/51693656?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_jx6hH7RQ4G9glsZC&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Apartamento finamente mobiliado e decorado! Área de lazer com piscina aquecida e muito mais!</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$369 </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 quartos</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133389_BCP%2FT9xcO7lY%2BfAk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Studio Aconchegante Selfie - ALL1310</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Quarto em apart-hotel em Centro, Brasil</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Centro, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$221 </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/53669097?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133389_eCywe0CcZ9VGUPjE&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Espaço inteiro Casa 2 Pinheiros</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa de campo em Pomerode, Brasil</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Pomerode, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$170 </t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>10 hóspedes</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 quartos</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 4 camas</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/775342243026871446?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_Rg3S8bUsMKd4uDNq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Apto mobiliado - Centro Londrina - até 4 pessoas</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$94 </t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/1072352680234309026?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133389_TlAIvik0cecNEAsO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Refugio na cidade de Londrina.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: casa em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$404 </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2 hóspedes</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 cama</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 banheiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/48660624?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133389_6P72%2BbZ2qES%2FywAz&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Chalé Cupido - @Refúgiodosanjos.Chalés</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: chalé em Rio dos Cedros, Brasil</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Rio dos Cedros, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$544 </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/772175981555864614?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_ghLBL%2BaEEqmZScMM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Lindo apartamento. Rústico.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Santa Terezinha de Itaipu, Brasil</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$55 </t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4 hóspedes</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/938679570482994372?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_WrhJ%2F14yNgbI4kys&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Aconchego Familiar</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Londrina, Paraná, Brasil</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$149 </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5 hóspedes</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 quartos</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 3 camas</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 banheiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.airbnb.com.br/rooms/902753661350280955?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_J8fkofw1nWtLELpB&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Loft Sofisticado-Central-Vaga academia completo</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Espaço inteiro: apartamento em Joinville, Brasil</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Joinville, Santa Catarina, Brasil</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R$169 </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3 hóspedes</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 1 quarto</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> · 2 camas</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t xml:space="preserve"> · 1 banheiro</t>
         </is>
